--- a/Team-Data/2014-15/3-25-2014-15.xlsx
+++ b/Team-Data/2014-15/3-25-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="n">
         <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.761</v>
+        <v>0.757</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,7 +751,7 @@
         <v>37.8</v>
       </c>
       <c r="J2" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K2" t="n">
         <v>0.465</v>
@@ -693,25 +760,25 @@
         <v>10</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P2" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q2" t="n">
         <v>0.779</v>
       </c>
       <c r="R2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S2" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T2" t="n">
         <v>40.5</v>
@@ -735,16 +802,16 @@
         <v>17.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -768,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>7</v>
@@ -780,10 +847,10 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
@@ -798,25 +865,25 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
         <v>31</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" t="n">
-        <v>0.437</v>
+        <v>0.443</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
-        <v>88.09999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L3" t="n">
         <v>8.1</v>
@@ -878,16 +945,16 @@
         <v>24.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
       <c r="O3" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P3" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R3" t="n">
         <v>11.3</v>
@@ -899,10 +966,10 @@
         <v>44.1</v>
       </c>
       <c r="U3" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="V3" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -917,16 +984,16 @@
         <v>21.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
         <v>-0.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
@@ -947,13 +1014,13 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
       </c>
       <c r="AM3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN3" t="n">
         <v>26</v>
@@ -962,10 +1029,10 @@
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
         <v>11</v>
@@ -974,31 +1041,31 @@
         <v>10</v>
       </c>
       <c r="AT3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV3" t="n">
         <v>11</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>14</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.429</v>
+        <v>0.42</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
@@ -1048,40 +1115,40 @@
         <v>37.1</v>
       </c>
       <c r="J4" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K4" t="n">
         <v>0.449</v>
       </c>
       <c r="L4" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>0.323</v>
+        <v>0.324</v>
       </c>
       <c r="O4" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P4" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="R4" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T4" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V4" t="n">
         <v>14.2</v>
@@ -1093,31 +1160,31 @@
         <v>4.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.4</v>
+        <v>-3.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF4" t="n">
         <v>21</v>
       </c>
-      <c r="AF4" t="n">
-        <v>18</v>
-      </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1126,13 +1193,13 @@
         <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>20</v>
@@ -1141,25 +1208,25 @@
         <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS4" t="n">
         <v>18</v>
       </c>
-      <c r="AR4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>17</v>
-      </c>
       <c r="AT4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV4" t="n">
         <v>16</v>
@@ -1171,7 +1238,7 @@
         <v>25</v>
       </c>
       <c r="AY4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ4" t="n">
         <v>13</v>
@@ -1183,7 +1250,7 @@
         <v>23</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="n">
-        <v>0.429</v>
+        <v>0.435</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1230,37 +1297,37 @@
         <v>35.8</v>
       </c>
       <c r="J5" t="n">
-        <v>84.59999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.315</v>
+        <v>0.316</v>
       </c>
       <c r="O5" t="n">
         <v>17.2</v>
       </c>
       <c r="P5" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.746</v>
+        <v>0.747</v>
       </c>
       <c r="R5" t="n">
         <v>10</v>
       </c>
       <c r="S5" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="T5" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U5" t="n">
         <v>20.4</v>
@@ -1275,31 +1342,31 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
         <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>8</v>
@@ -1329,19 +1396,19 @@
         <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT5" t="n">
         <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
         <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>0.603</v>
+        <v>0.597</v>
       </c>
       <c r="H6" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J6" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K6" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L6" t="n">
         <v>7.8</v>
@@ -1424,25 +1491,25 @@
         <v>22</v>
       </c>
       <c r="N6" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O6" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q6" t="n">
         <v>0.786</v>
       </c>
       <c r="R6" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S6" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T6" t="n">
-        <v>45.7</v>
+        <v>45.9</v>
       </c>
       <c r="U6" t="n">
         <v>21.7</v>
@@ -1451,31 +1518,31 @@
         <v>13.9</v>
       </c>
       <c r="W6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
         <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z6" t="n">
         <v>18.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1487,16 +1554,16 @@
         <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM6" t="n">
         <v>16</v>
@@ -1508,25 +1575,25 @@
         <v>2</v>
       </c>
       <c r="AP6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1535,16 +1602,16 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
       </c>
       <c r="BA6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" t="n">
         <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.644</v>
+        <v>0.639</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J7" t="n">
         <v>82.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L7" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="N7" t="n">
         <v>0.365</v>
       </c>
       <c r="O7" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P7" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R7" t="n">
         <v>11.1</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
         <v>42.8</v>
       </c>
       <c r="U7" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V7" t="n">
         <v>13.9</v>
@@ -1645,19 +1712,19 @@
         <v>18.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
@@ -1666,13 +1733,13 @@
         <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK7" t="n">
         <v>7</v>
@@ -1681,7 +1748,7 @@
         <v>6</v>
       </c>
       <c r="AM7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN7" t="n">
         <v>5</v>
@@ -1696,19 +1763,19 @@
         <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT7" t="n">
         <v>19</v>
       </c>
       <c r="AU7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV7" t="n">
         <v>10</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>13</v>
       </c>
       <c r="AW7" t="n">
         <v>18</v>
@@ -1723,13 +1790,13 @@
         <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" t="n">
         <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.634</v>
+        <v>0.625</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,7 +1843,7 @@
         <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.461</v>
@@ -1785,7 +1852,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="N8" t="n">
         <v>0.353</v>
@@ -1797,19 +1864,19 @@
         <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V8" t="n">
         <v>12.9</v>
@@ -1821,7 +1888,7 @@
         <v>4.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z8" t="n">
         <v>19.8</v>
@@ -1833,22 +1900,22 @@
         <v>104.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1881,7 +1948,7 @@
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT8" t="n">
         <v>24</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -1940,43 +2007,43 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" t="n">
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" t="n">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J9" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="L9" t="n">
         <v>7.8</v>
       </c>
       <c r="M9" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.32</v>
+        <v>0.321</v>
       </c>
       <c r="O9" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P9" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q9" t="n">
         <v>0.729</v>
@@ -1988,13 +2055,13 @@
         <v>32.6</v>
       </c>
       <c r="T9" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U9" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V9" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W9" t="n">
         <v>7.6</v>
@@ -2003,7 +2070,7 @@
         <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z9" t="n">
         <v>22.8</v>
@@ -2012,43 +2079,43 @@
         <v>20.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.6</v>
+        <v>-3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -2069,7 +2136,7 @@
         <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
         <v>15</v>
@@ -2078,22 +2145,22 @@
         <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2251,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="AU10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV10" t="n">
         <v>7</v>
@@ -2269,10 +2336,10 @@
         <v>8</v>
       </c>
       <c r="BA10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,13 +2461,13 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2409,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
@@ -2424,13 +2491,13 @@
         <v>8</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
@@ -2442,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="AX11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -2501,31 +2568,31 @@
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="M12" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O12" t="n">
-        <v>17.8</v>
+        <v>18.1</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R12" t="n">
         <v>11.7</v>
@@ -2534,37 +2601,37 @@
         <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V12" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
         <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2582,10 +2649,10 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,25 +2661,25 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>26</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS12" t="n">
         <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2624,16 +2691,16 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>8</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -2668,22 +2735,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
         <v>40</v>
       </c>
       <c r="G13" t="n">
-        <v>0.437</v>
+        <v>0.429</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J13" t="n">
         <v>83.5</v>
@@ -2704,10 +2771,10 @@
         <v>16.4</v>
       </c>
       <c r="P13" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.762</v>
+        <v>0.764</v>
       </c>
       <c r="R13" t="n">
         <v>10.4</v>
@@ -2722,7 +2789,7 @@
         <v>21.4</v>
       </c>
       <c r="V13" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W13" t="n">
         <v>6.1</v>
@@ -2740,28 +2807,28 @@
         <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>-0.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
         <v>15</v>
@@ -2785,7 +2852,7 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>21</v>
@@ -2800,7 +2867,7 @@
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
@@ -2812,7 +2879,7 @@
         <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -2850,43 +2917,43 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="n">
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.653</v>
+        <v>0.648</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="J14" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L14" t="n">
         <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="N14" t="n">
         <v>0.374</v>
       </c>
       <c r="O14" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P14" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q14" t="n">
         <v>0.712</v>
@@ -2901,7 +2968,7 @@
         <v>42.2</v>
       </c>
       <c r="U14" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V14" t="n">
         <v>12.3</v>
@@ -2910,28 +2977,28 @@
         <v>7.8</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y14" t="n">
         <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2940,10 +3007,10 @@
         <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ14" t="n">
         <v>16</v>
@@ -2964,7 +3031,7 @@
         <v>11</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
         <v>28</v>
@@ -2976,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2997,7 +3064,7 @@
         <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -3035,22 +3102,22 @@
         <v>69</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" t="n">
-        <v>0.275</v>
+        <v>0.261</v>
       </c>
       <c r="H15" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86</v>
+        <v>85.8</v>
       </c>
       <c r="K15" t="n">
         <v>0.437</v>
@@ -3059,31 +3126,31 @@
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T15" t="n">
-        <v>44.2</v>
+        <v>44</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
@@ -3098,49 +3165,49 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM15" t="n">
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
@@ -3152,22 +3219,22 @@
         <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
         <v>13</v>
       </c>
       <c r="AT15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX15" t="n">
         <v>18</v>
@@ -3179,10 +3246,10 @@
         <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -3214,61 +3281,61 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" t="n">
         <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>0.694</v>
+        <v>0.704</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J16" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M16" t="n">
         <v>15.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P16" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R16" t="n">
         <v>10.4</v>
       </c>
       <c r="S16" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="T16" t="n">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="U16" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V16" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W16" t="n">
         <v>8.699999999999999</v>
@@ -3280,19 +3347,19 @@
         <v>5.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3325,7 +3392,7 @@
         <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
         <v>13</v>
@@ -3355,7 +3422,7 @@
         <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3364,10 +3431,10 @@
         <v>14</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="n">
         <v>38</v>
       </c>
       <c r="G17" t="n">
-        <v>0.465</v>
+        <v>0.457</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3435,25 +3502,25 @@
         <v>23.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="R17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S17" t="n">
         <v>29.9</v>
       </c>
       <c r="T17" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="U17" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V17" t="n">
         <v>14.9</v>
       </c>
       <c r="W17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>4.4</v>
@@ -3462,7 +3529,7 @@
         <v>4.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA17" t="n">
         <v>20.9</v>
@@ -3471,10 +3538,10 @@
         <v>94.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2</v>
+        <v>-2.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3498,7 +3565,7 @@
         <v>9</v>
       </c>
       <c r="AL17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
@@ -3525,16 +3592,16 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW17" t="n">
         <v>10</v>
       </c>
       <c r="AX17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
         <v>8</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3671,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
         <v>26</v>
@@ -3695,13 +3762,13 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
         <v>18</v>
       </c>
       <c r="AS18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT18" t="n">
         <v>21</v>
@@ -3722,16 +3789,16 @@
         <v>13</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB18" t="n">
         <v>22</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -3760,25 +3827,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" t="n">
-        <v>0.225</v>
+        <v>0.229</v>
       </c>
       <c r="H19" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I19" t="n">
         <v>36.7</v>
       </c>
       <c r="J19" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K19" t="n">
         <v>0.437</v>
@@ -3787,31 +3854,31 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O19" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P19" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.77</v>
+        <v>0.767</v>
       </c>
       <c r="R19" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S19" t="n">
         <v>29.6</v>
       </c>
       <c r="T19" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U19" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V19" t="n">
         <v>15.1</v>
@@ -3823,10 +3890,10 @@
         <v>3.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA19" t="n">
         <v>21.3</v>
@@ -3838,28 +3905,28 @@
         <v>-7.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG19" t="n">
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3868,16 +3935,16 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR19" t="n">
         <v>4</v>
@@ -3889,7 +3956,7 @@
         <v>25</v>
       </c>
       <c r="AU19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV19" t="n">
         <v>24</v>
@@ -3904,7 +3971,7 @@
         <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -3945,25 +4012,25 @@
         <v>70</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="n">
-        <v>0.514</v>
+        <v>0.529</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>7.1</v>
@@ -3972,25 +4039,25 @@
         <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O20" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P20" t="n">
         <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.765</v>
+        <v>0.763</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>43.8</v>
       </c>
       <c r="U20" t="n">
         <v>21.9</v>
@@ -4002,25 +4069,25 @@
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.9</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4032,16 +4099,16 @@
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4053,25 +4120,25 @@
         <v>6</v>
       </c>
       <c r="AO20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
         <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS20" t="n">
         <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -4124,46 +4191,46 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" t="n">
-        <v>0.194</v>
+        <v>0.197</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J21" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.428</v>
+        <v>0.429</v>
       </c>
       <c r="L21" t="n">
         <v>6.8</v>
       </c>
       <c r="M21" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="O21" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="P21" t="n">
         <v>19</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R21" t="n">
         <v>10.7</v>
@@ -4172,37 +4239,37 @@
         <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V21" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W21" t="n">
         <v>7.1</v>
       </c>
       <c r="X21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y21" t="n">
         <v>4.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>91.90000000000001</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9.5</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4217,7 +4284,7 @@
         <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
         <v>22</v>
@@ -4253,10 +4320,10 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
         <v>23</v>
@@ -4265,10 +4332,10 @@
         <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
         <v>26</v>
@@ -4277,7 +4344,7 @@
         <v>29</v>
       </c>
       <c r="BC21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" t="n">
         <v>41</v>
       </c>
       <c r="F22" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>0.569</v>
+        <v>0.577</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J22" t="n">
-        <v>86.40000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L22" t="n">
         <v>7.5</v>
@@ -4339,52 +4406,52 @@
         <v>0.335</v>
       </c>
       <c r="O22" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P22" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R22" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S22" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="T22" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="U22" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V22" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
       </c>
       <c r="X22" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y22" t="n">
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.4</v>
+        <v>103.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>12</v>
@@ -4396,10 +4463,10 @@
         <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ22" t="n">
         <v>4</v>
@@ -4423,7 +4490,7 @@
         <v>8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4435,10 +4502,10 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW22" t="n">
         <v>21</v>
@@ -4456,7 +4523,7 @@
         <v>18</v>
       </c>
       <c r="BB22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -4506,10 +4573,10 @@
         <v>37.5</v>
       </c>
       <c r="J23" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
@@ -4518,7 +4585,7 @@
         <v>19.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O23" t="n">
         <v>14.2</v>
@@ -4527,16 +4594,16 @@
         <v>19.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
       <c r="R23" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U23" t="n">
         <v>20.6</v>
@@ -4548,13 +4615,13 @@
         <v>7.9</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA23" t="n">
         <v>18.2</v>
@@ -4563,10 +4630,10 @@
         <v>96.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.9</v>
+        <v>-6</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4581,22 +4648,22 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4611,13 +4678,13 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
       </c>
       <c r="AU23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV23" t="n">
         <v>20</v>
@@ -4626,13 +4693,13 @@
         <v>13</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -4670,22 +4737,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" t="n">
         <v>54</v>
       </c>
       <c r="G24" t="n">
-        <v>0.25</v>
+        <v>0.239</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="J24" t="n">
         <v>82</v>
@@ -4694,16 +4761,16 @@
         <v>0.409</v>
       </c>
       <c r="L24" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.322</v>
+        <v>0.321</v>
       </c>
       <c r="O24" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P24" t="n">
         <v>23.7</v>
@@ -4712,25 +4779,25 @@
         <v>0.674</v>
       </c>
       <c r="R24" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S24" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T24" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U24" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V24" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="W24" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y24" t="n">
         <v>5.5</v>
@@ -4742,13 +4809,13 @@
         <v>20.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.9</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4772,16 +4839,16 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4799,7 +4866,7 @@
         <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4817,13 +4884,13 @@
         <v>24</v>
       </c>
       <c r="BA24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
       </c>
       <c r="BC24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" t="n">
         <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="n">
-        <v>0.528</v>
+        <v>0.535</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
@@ -4882,28 +4949,28 @@
         <v>25.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O25" t="n">
         <v>16.7</v>
       </c>
       <c r="P25" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.763</v>
+        <v>0.765</v>
       </c>
       <c r="R25" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S25" t="n">
         <v>32.4</v>
       </c>
       <c r="T25" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U25" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V25" t="n">
         <v>15.3</v>
@@ -4927,10 +4994,10 @@
         <v>104.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4945,31 +5012,31 @@
         <v>6</v>
       </c>
       <c r="AI25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ25" t="n">
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>8</v>
       </c>
       <c r="AM25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN25" t="n">
         <v>14</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP25" t="n">
         <v>20</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
@@ -4978,13 +5045,13 @@
         <v>14</v>
       </c>
       <c r="AT25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW25" t="n">
         <v>6</v>
@@ -4996,10 +5063,10 @@
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.643</v>
+        <v>0.638</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5064,16 +5131,16 @@
         <v>27.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.362</v>
+        <v>0.364</v>
       </c>
       <c r="O26" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P26" t="n">
         <v>19.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="R26" t="n">
         <v>10.7</v>
@@ -5106,16 +5173,16 @@
         <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="AC26" t="n">
         <v>4.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5142,13 +5209,13 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5160,10 +5227,10 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
@@ -5184,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" t="n">
         <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>0.366</v>
+        <v>0.357</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J27" t="n">
         <v>80.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L27" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M27" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
       <c r="O27" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="P27" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R27" t="n">
         <v>11.1</v>
@@ -5264,13 +5331,13 @@
         <v>33.5</v>
       </c>
       <c r="T27" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U27" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V27" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="W27" t="n">
         <v>6.6</v>
@@ -5288,19 +5355,19 @@
         <v>24.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,10 +5400,10 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS27" t="n">
         <v>9</v>
@@ -5345,7 +5412,7 @@
         <v>8</v>
       </c>
       <c r="AU27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5357,10 +5424,10 @@
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -5413,22 +5480,22 @@
         <v>48.8</v>
       </c>
       <c r="I28" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="J28" t="n">
-        <v>83.90000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L28" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="O28" t="n">
         <v>17.1</v>
@@ -5443,70 +5510,70 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="U28" t="n">
         <v>24.2</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X28" t="n">
         <v>5.5</v>
       </c>
       <c r="Y28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="AC28" t="n">
         <v>4.5</v>
       </c>
-      <c r="Z28" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>5.1</v>
-      </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
       </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM28" t="n">
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
@@ -5524,13 +5591,13 @@
         <v>7</v>
       </c>
       <c r="AT28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV28" t="n">
         <v>14</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>10</v>
       </c>
       <c r="AW28" t="n">
         <v>12</v>
@@ -5539,19 +5606,19 @@
         <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -5580,43 +5647,43 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" t="n">
         <v>42</v>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="n">
-        <v>0.583</v>
+        <v>0.592</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J29" t="n">
         <v>83.7</v>
       </c>
       <c r="K29" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L29" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="N29" t="n">
         <v>0.351</v>
       </c>
       <c r="O29" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P29" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q29" t="n">
         <v>0.79</v>
@@ -5625,58 +5692,58 @@
         <v>10.8</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T29" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U29" t="n">
         <v>20.8</v>
       </c>
       <c r="V29" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W29" t="n">
         <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y29" t="n">
         <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB29" t="n">
         <v>104.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>14</v>
@@ -5688,13 +5755,13 @@
         <v>11</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
@@ -5718,16 +5785,16 @@
         <v>17</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="n">
         <v>31</v>
       </c>
       <c r="F30" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" t="n">
-        <v>0.437</v>
+        <v>0.443</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5786,22 +5853,22 @@
         <v>0.448</v>
       </c>
       <c r="L30" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M30" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O30" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P30" t="n">
         <v>23.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R30" t="n">
         <v>11.9</v>
@@ -5813,13 +5880,13 @@
         <v>43.7</v>
       </c>
       <c r="U30" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V30" t="n">
         <v>15.3</v>
       </c>
       <c r="W30" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X30" t="n">
         <v>6</v>
@@ -5834,13 +5901,13 @@
         <v>19.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC30" t="n">
         <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
@@ -5855,7 +5922,7 @@
         <v>30</v>
       </c>
       <c r="AI30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ30" t="n">
         <v>29</v>
@@ -5888,19 +5955,19 @@
         <v>19</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
         <v>12</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
@@ -5944,31 +6011,31 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" t="n">
         <v>40</v>
       </c>
       <c r="F31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="n">
-        <v>0.556</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J31" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K31" t="n">
         <v>0.464</v>
       </c>
       <c r="L31" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>16.6</v>
@@ -5977,25 +6044,25 @@
         <v>0.358</v>
       </c>
       <c r="O31" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="P31" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.745</v>
+        <v>0.743</v>
       </c>
       <c r="R31" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S31" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T31" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U31" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="V31" t="n">
         <v>14.9</v>
@@ -6007,7 +6074,7 @@
         <v>4.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z31" t="n">
         <v>20.9</v>
@@ -6022,7 +6089,7 @@
         <v>0.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
@@ -6034,13 +6101,13 @@
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
         <v>9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK31" t="n">
         <v>4</v>
@@ -6055,7 +6122,7 @@
         <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
         <v>24</v>
@@ -6076,19 +6143,19 @@
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
         <v>22</v>
       </c>
       <c r="AX31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-25-2014-15</t>
+          <t>2015-03-25</t>
         </is>
       </c>
     </row>
